--- a/biology/Histoire de la zoologie et de la botanique/Aldo_Leopold/Aldo_Leopold.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Aldo_Leopold/Aldo_Leopold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aldo Leopold (11 janvier 1887 – 21 avril 1948) est un forestier, écologue et écologiste américain. Il a influencé le développement de l'éthique environnementale moderne et le mouvement pour la protection des espaces naturels. Aldo Leopold est considéré comme l'un des pères de la gestion de la protection de l'environnement aux États-Unis. Il a pratiqué la pêche et la chasse tout au long de sa vie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aldo Leopold naît à Burlington dans l'Iowa. Il grandit en contact avec les champs, les arbres, les prés, les ruisseaux, les rivières. Ses écrits sur la Nature sont remarquables pour leur droiture et leur simplicité, et montrent la connaissance intime qu'il a de celle-ci.
 Leopold suit ses années d'études secondaires à l'école prestigieuse de Lawrenceville dans le New Jersey, avant de continuer ses études à l'école de sylviculture de l'université Yale. Il obtient sa maîtrise dans cette science en 1909. Sa perception particulière de la Nature, de sa beauté et de son mystère, lui a donné des bases pour s'intéresser étroitement à l'écologie. Sa vie professionnelle rassemblera ses différentes passions : sylviculture, écologie, écriture.
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Défenseur de l'environnement et des espaces naturels, Leopold est, en 1935, un des fondateurs de la Société des espaces naturels. Nommé en son honneur, l'Espace naturel Aldo Leopold se trouve aux frontières de la forêt nationale de Gila, au Nouveau-Mexique. Leopold contribue à l'obtention de la gestion de Gila en tant qu'espace naturel, grâce à quoi, la forêt nationale de Gila devient en 1924 le premier espace naturel officialisé par le gouvernement américain. On considère souvent la création de la forêt nationale de Gila et de l'espace naturel Aldo Leopold comme ayant été à l'origine du mouvement moderne de conservation des espaces naturels aux États-Unis.
 Leopold critiqua vivement le mal qu'il pensait être fréquemment fait aux espaces naturels par la propriété souveraine sur les terres. Il espérait que la sécurité et la prospérité résultant de la mécanisation donnerait désormais aux gens du temps pour réfléchir à l'importance de la Nature et d'en apprendre davantage sur ce qui s'y passe.
@@ -580,7 +596,9 @@
           <t>Protection de l'environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans Éthique de l'environnement, un chapitre de l’Almanach d'un comté des sables, Leopold cherche à définir la protection de l'environnement. Il écrit : « La protection est un état harmonieux entre les hommes et la Terre. »
 Leopold estimait que la société avait besoin, de manière générale, d'une meilleure éducation sur la protection de l'environnement ; cependant, la quantité et le contenu de cette éducation étaient sujets à débat. À l'époque où il écrivait (vers la fin des années 1940), Leopold résumait l'essentiel de l'éducation dans le domaine environnemental à : obéissez à la loi, votez comme on vous le demande, rejoignez quelques organisations et protégez votre environnement en fonction de sa rentabilité ; le gouvernement fera le reste. Il critiquait vivement cette « formule ». Pour lui, elle servait avant tout les intérêts personnels. Ce fait le fit arriver à la conclusion que les obligations n'ont aucune signification sans conscience, et que le problème auquel la société fait face est l'extension de la conscience sociale des gens à l'égard de la Nature. À l'époque où il écrivait, il pensait que la protection de l'environnement avait été réduite à son strict minimum, et ce sans aucune avancée dans la philosophie ou la religion.
